--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>id</t>
   </si>
@@ -149,10 +149,22 @@
     <t>消耗</t>
   </si>
   <si>
-    <t>天神之力</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
+    <t>火柱</t>
+  </si>
+  <si>
+    <t>card_000</t>
+  </si>
+  <si>
+    <t>kapai</t>
+  </si>
+  <si>
+    <t>card_skill_3000001</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>card_skill_3000002</t>
   </si>
 </sst>
 </file>
@@ -160,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,42 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,49 +215,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,33 +269,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,12 +339,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,169 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,30 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,22 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,17 +572,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,153 +610,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -779,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,14 +1135,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1173,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>3000001</v>
       </c>
@@ -1191,6 +1197,50 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>100001</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>3000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3000002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>100002</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zsbin</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -43,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -66,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -89,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -109,6 +132,94 @@
           <t xml:space="preserve">
 装备ICON
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牌面图片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+中心图片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应技能id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+消耗</t>
         </r>
       </text>
     </comment>
@@ -122,7 +233,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>name</t>
   </si>
   <si>
     <t>stacking</t>
@@ -137,16 +248,16 @@
     <t>icon</t>
   </si>
   <si>
-    <t>牌面图片</t>
-  </si>
-  <si>
-    <t>中心图片</t>
-  </si>
-  <si>
-    <t>对应技能id</t>
-  </si>
-  <si>
-    <t>消耗</t>
+    <t>top_resource</t>
+  </si>
+  <si>
+    <t>center_resource</t>
+  </si>
+  <si>
+    <t>skill_id</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
   <si>
     <t>火柱</t>
@@ -172,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -193,8 +304,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,114 +427,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,25 +456,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,151 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,11 +644,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +698,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,21 +712,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,130 +761,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,11 +1249,12 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>id</t>
   </si>
@@ -275,7 +275,25 @@
     <t>治疗</t>
   </si>
   <si>
-    <t>card_skill_3000002</t>
+    <t>百裂斩</t>
+  </si>
+  <si>
+    <t>灵魂痛击</t>
+  </si>
+  <si>
+    <t>痛击</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>祭品</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>无目标治疗</t>
   </si>
 </sst>
 </file>
@@ -283,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -299,6 +317,111 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,36 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,84 +458,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -456,19 +474,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,157 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,17 +686,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,32 +728,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +744,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -749,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,130 +779,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,14 +1264,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -1346,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>100002</v>
@@ -1354,6 +1374,240 @@
       <c r="J3">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>100004</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3000004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>100005</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>3000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3000005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>100006</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>3000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3000006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>100007</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>3000007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3000007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>300001</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>3000008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3000008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>100009</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>3000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3000009</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>100002</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>id</t>
   </si>
@@ -263,7 +263,7 @@
     <t>火柱</t>
   </si>
   <si>
-    <t>card_000</t>
+    <t>card_3000001</t>
   </si>
   <si>
     <t>kapai</t>
@@ -275,25 +275,73 @@
     <t>治疗</t>
   </si>
   <si>
+    <t>card_3000002</t>
+  </si>
+  <si>
+    <t>card_skill_3000002</t>
+  </si>
+  <si>
     <t>百裂斩</t>
   </si>
   <si>
+    <t>card_3000003</t>
+  </si>
+  <si>
+    <t>card_skill_3000003</t>
+  </si>
+  <si>
     <t>灵魂痛击</t>
   </si>
   <si>
+    <t>card_3000004</t>
+  </si>
+  <si>
+    <t>card_skill_3000004</t>
+  </si>
+  <si>
     <t>痛击</t>
   </si>
   <si>
+    <t>card_3000005</t>
+  </si>
+  <si>
+    <t>card_skill_3000005</t>
+  </si>
+  <si>
     <t>压制</t>
   </si>
   <si>
+    <t>card_3000006</t>
+  </si>
+  <si>
+    <t>card_skill_3000006</t>
+  </si>
+  <si>
     <t>祭品</t>
   </si>
   <si>
+    <t>card_3000007</t>
+  </si>
+  <si>
+    <t>card_skill_3000007</t>
+  </si>
+  <si>
     <t>准备</t>
   </si>
   <si>
+    <t>card_3000008</t>
+  </si>
+  <si>
+    <t>card_skill_3000008</t>
+  </si>
+  <si>
     <t>无目标治疗</t>
+  </si>
+  <si>
+    <t>card_3000009</t>
+  </si>
+  <si>
+    <t>card_skill_3000009</t>
   </si>
 </sst>
 </file>
@@ -301,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -316,14 +364,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +429,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -358,31 +468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,14 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -412,37 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,11 +500,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,187 +516,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,30 +707,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -704,8 +728,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,15 +790,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -745,17 +799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,133 +827,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,13 +1315,13 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -1360,13 +1408,13 @@
         <v>3000002</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>100002</v>
@@ -1380,7 +1428,7 @@
         <v>3000003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1392,13 +1440,13 @@
         <v>3000003</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>100004</v>
@@ -1412,7 +1460,7 @@
         <v>3000004</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1424,13 +1472,13 @@
         <v>3000004</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>100005</v>
@@ -1444,7 +1492,7 @@
         <v>3000005</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1456,13 +1504,13 @@
         <v>3000005</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>100006</v>
@@ -1476,7 +1524,7 @@
         <v>3000006</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1488,13 +1536,13 @@
         <v>3000006</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I7">
         <v>100007</v>
@@ -1508,7 +1556,7 @@
         <v>3000007</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1520,13 +1568,13 @@
         <v>3000007</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I8">
         <v>300001</v>
@@ -1540,7 +1588,7 @@
         <v>3000008</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1552,13 +1600,13 @@
         <v>3000008</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>100009</v>
@@ -1572,7 +1620,7 @@
         <v>3000009</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1584,13 +1632,13 @@
         <v>3000009</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>100002</v>
@@ -1601,9 +1649,6 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:1">

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7965"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -364,14 +364,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,108 +478,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,25 +516,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,25 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,121 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,26 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,22 +759,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,15 +807,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,145 +815,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>id</t>
   </si>
@@ -342,6 +342,24 @@
   </si>
   <si>
     <t>card_skill_3000009</t>
+  </si>
+  <si>
+    <t>连环斩</t>
+  </si>
+  <si>
+    <t>恐吓</t>
+  </si>
+  <si>
+    <t>汲魂</t>
+  </si>
+  <si>
+    <t>撕裂</t>
+  </si>
+  <si>
+    <t>手雷</t>
+  </si>
+  <si>
+    <t>渴血</t>
   </si>
 </sst>
 </file>
@@ -349,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -364,6 +382,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -371,15 +411,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,93 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,14 +519,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,121 +534,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,61 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,32 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,20 +752,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,15 +784,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -807,6 +792,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +845,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,10 +1330,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1647,12 +1665,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>3000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3000010</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>100003</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>3000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3000011</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>100010</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>3000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3000012</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>100011</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>3000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3000013</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>100012</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>3000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3000014</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>100013</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>3000015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3000015</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>200003</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView xWindow="9210" yWindow="7575" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -382,7 +382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,8 +396,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,7 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,16 +440,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +464,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,56 +511,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,13 +534,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,169 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,15 +725,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,6 +743,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -763,32 +763,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +799,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,133 +845,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,7 +1659,7 @@
         <v>37</v>
       </c>
       <c r="I10">
-        <v>100002</v>
+        <v>100008</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="7575" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,21 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -404,11 +389,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,10 +418,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,11 +440,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,7 +479,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -465,7 +487,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -473,7 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,37 +519,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,25 +540,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,145 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +770,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -778,9 +787,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,17 +825,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,145 +833,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>id</t>
   </si>
@@ -347,19 +347,37 @@
     <t>连环斩</t>
   </si>
   <si>
+    <t>card_skill_3000010</t>
+  </si>
+  <si>
     <t>恐吓</t>
   </si>
   <si>
+    <t>card_skill_3000011</t>
+  </si>
+  <si>
     <t>汲魂</t>
   </si>
   <si>
+    <t>card_skill_3000012</t>
+  </si>
+  <si>
     <t>撕裂</t>
   </si>
   <si>
+    <t>card_skill_3000013</t>
+  </si>
+  <si>
     <t>手雷</t>
   </si>
   <si>
+    <t>card_skill_3000014</t>
+  </si>
+  <si>
     <t>渴血</t>
+  </si>
+  <si>
+    <t>card_skill_3000015</t>
   </si>
 </sst>
 </file>
@@ -367,10 +385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -381,24 +399,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,14 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -433,8 +428,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,50 +497,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,15 +529,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,181 +558,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +765,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,33 +813,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +832,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,133 +863,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1351,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1688,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>100003</v>
@@ -1702,7 +1720,7 @@
         <v>3000011</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1720,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I12">
         <v>100010</v>
@@ -1734,7 +1752,7 @@
         <v>3000012</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1752,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I13">
         <v>100011</v>
@@ -1766,7 +1784,7 @@
         <v>3000013</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1784,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>100012</v>
@@ -1798,7 +1816,7 @@
         <v>3000014</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1816,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <v>100013</v>
@@ -1830,7 +1848,7 @@
         <v>3000015</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1848,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I16">
         <v>200003</v>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>id</t>
   </si>
@@ -347,34 +347,52 @@
     <t>连环斩</t>
   </si>
   <si>
+    <t>card_3000010</t>
+  </si>
+  <si>
     <t>card_skill_3000010</t>
   </si>
   <si>
     <t>恐吓</t>
   </si>
   <si>
+    <t>card_3000011</t>
+  </si>
+  <si>
     <t>card_skill_3000011</t>
   </si>
   <si>
     <t>汲魂</t>
   </si>
   <si>
+    <t>card_3000012</t>
+  </si>
+  <si>
     <t>card_skill_3000012</t>
   </si>
   <si>
     <t>撕裂</t>
   </si>
   <si>
+    <t>card_3000013</t>
+  </si>
+  <si>
     <t>card_skill_3000013</t>
   </si>
   <si>
     <t>手雷</t>
   </si>
   <si>
+    <t>card_3000014</t>
+  </si>
+  <si>
     <t>card_skill_3000014</t>
   </si>
   <si>
     <t>渴血</t>
+  </si>
+  <si>
+    <t>card_3000015</t>
   </si>
   <si>
     <t>card_skill_3000015</t>
@@ -387,8 +405,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -399,9 +417,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +478,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -422,9 +524,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,104 +554,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -552,13 +570,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,19 +702,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,145 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +761,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -769,80 +861,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,7 +1369,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1700,13 +1718,13 @@
         <v>3000010</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>100003</v>
@@ -1720,7 +1738,7 @@
         <v>3000011</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1732,13 +1750,13 @@
         <v>3000011</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>100010</v>
@@ -1752,7 +1770,7 @@
         <v>3000012</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1764,13 +1782,13 @@
         <v>3000012</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I13">
         <v>100011</v>
@@ -1784,7 +1802,7 @@
         <v>3000013</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1796,13 +1814,13 @@
         <v>3000013</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I14">
         <v>100012</v>
@@ -1816,7 +1834,7 @@
         <v>3000014</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1828,13 +1846,13 @@
         <v>3000014</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I15">
         <v>100013</v>
@@ -1848,7 +1866,7 @@
         <v>3000015</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1860,13 +1878,13 @@
         <v>3000015</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <v>200003</v>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -414,6 +414,50 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,8 +476,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,58 +525,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,35 +554,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -570,6 +570,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,7 +594,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +678,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,67 +708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,61 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +761,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -811,24 +829,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -869,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,133 +881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE2757-F2F6-4008-8504-48900E06D04F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -81,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,13 +101,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -104,6 +117,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -112,13 +126,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -127,6 +142,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -135,13 +151,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -150,6 +167,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -157,13 +175,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -172,6 +191,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -179,13 +199,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -194,6 +215,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -201,13 +223,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -216,6 +239,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -228,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -401,14 +425,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,345 +435,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -763,251 +471,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,61 +485,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1360,19 +782,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
@@ -1381,7 +803,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3000001</v>
       </c>
@@ -1442,10 +864,10 @@
         <v>100001</v>
       </c>
       <c r="J2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3000002</v>
       </c>
@@ -1477,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3000003</v>
       </c>
@@ -1506,10 +928,10 @@
         <v>100004</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3000004</v>
       </c>
@@ -1538,10 +960,10 @@
         <v>100005</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3000005</v>
       </c>
@@ -1570,10 +992,10 @@
         <v>100006</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3000006</v>
       </c>
@@ -1602,10 +1024,10 @@
         <v>100007</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3000007</v>
       </c>
@@ -1637,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3000008</v>
       </c>
@@ -1666,10 +1088,10 @@
         <v>100009</v>
       </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3000009</v>
       </c>
@@ -1701,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3000010</v>
       </c>
@@ -1733,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3000011</v>
       </c>
@@ -1762,10 +1184,10 @@
         <v>100010</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3000012</v>
       </c>
@@ -1794,10 +1216,10 @@
         <v>100011</v>
       </c>
       <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3000013</v>
       </c>
@@ -1826,10 +1248,10 @@
         <v>100012</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3000014</v>
       </c>
@@ -1861,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3000015</v>
       </c>
@@ -1894,43 +1316,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE2757-F2F6-4008-8504-48900E06D04F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26055" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -101,14 +89,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -117,7 +104,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,14 +112,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -142,7 +127,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -151,14 +135,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -167,7 +150,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -175,14 +157,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -191,7 +172,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -199,14 +179,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -215,7 +194,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -223,14 +201,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -239,7 +216,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -252,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>id</t>
   </si>
@@ -425,8 +401,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,35 +417,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -471,9 +763,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -485,17 +1019,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -782,19 +1360,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
@@ -803,7 +1381,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>3000001</v>
       </c>
@@ -867,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>3000002</v>
       </c>
@@ -899,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3000003</v>
       </c>
@@ -931,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3000004</v>
       </c>
@@ -963,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>3000005</v>
       </c>
@@ -995,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>3000006</v>
       </c>
@@ -1027,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>3000007</v>
       </c>
@@ -1059,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>3000008</v>
       </c>
@@ -1091,7 +1669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>3000009</v>
       </c>
@@ -1123,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>3000010</v>
       </c>
@@ -1155,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>3000011</v>
       </c>
@@ -1187,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>3000012</v>
       </c>
@@ -1219,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>3000013</v>
       </c>
@@ -1251,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>3000014</v>
       </c>
@@ -1283,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>3000015</v>
       </c>
@@ -1316,37 +1894,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E3DCB-6815-49E5-B822-7E8FB18CBAF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26055" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -81,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,13 +101,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -104,6 +117,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -112,13 +126,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -127,6 +142,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -135,13 +151,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -150,6 +167,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -157,13 +175,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -172,6 +191,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -179,13 +199,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -194,6 +215,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -201,13 +223,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -216,6 +239,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -228,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -333,15 +357,6 @@
   </si>
   <si>
     <t>card_skill_3000008</t>
-  </si>
-  <si>
-    <t>无目标治疗</t>
-  </si>
-  <si>
-    <t>card_3000009</t>
-  </si>
-  <si>
-    <t>card_skill_3000009</t>
   </si>
   <si>
     <t>连环斩</t>
@@ -401,14 +416,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,345 +426,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -763,251 +462,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,61 +476,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1360,19 +773,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
@@ -1381,7 +794,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3000001</v>
       </c>
@@ -1445,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3000002</v>
       </c>
@@ -1471,13 +884,13 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>100002</v>
+        <v>100008</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3000003</v>
       </c>
@@ -1509,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3000004</v>
       </c>
@@ -1541,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3000005</v>
       </c>
@@ -1573,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3000006</v>
       </c>
@@ -1605,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3000007</v>
       </c>
@@ -1637,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3000008</v>
       </c>
@@ -1669,7 +1082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3000009</v>
       </c>
@@ -1683,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>3000009</v>
+        <v>3000010</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -1695,13 +1108,13 @@
         <v>37</v>
       </c>
       <c r="I10">
-        <v>100008</v>
+        <v>100003</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3000010</v>
       </c>
@@ -1715,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>3000010</v>
+        <v>3000011</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -1727,13 +1140,13 @@
         <v>40</v>
       </c>
       <c r="I11">
-        <v>100003</v>
+        <v>100010</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3000011</v>
       </c>
@@ -1747,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>3000011</v>
+        <v>3000012</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -1759,13 +1172,13 @@
         <v>43</v>
       </c>
       <c r="I12">
-        <v>100010</v>
+        <v>100011</v>
       </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3000012</v>
       </c>
@@ -1779,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>3000012</v>
+        <v>3000013</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -1791,13 +1204,13 @@
         <v>46</v>
       </c>
       <c r="I13">
-        <v>100011</v>
+        <v>100012</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3000013</v>
       </c>
@@ -1811,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>3000013</v>
+        <v>3000014</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -1823,13 +1236,13 @@
         <v>49</v>
       </c>
       <c r="I14">
-        <v>100012</v>
+        <v>100013</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3000014</v>
       </c>
@@ -1843,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>3000014</v>
+        <v>3000015</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -1855,82 +1268,44 @@
         <v>52</v>
       </c>
       <c r="I15">
-        <v>100013</v>
+        <v>200003</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>3000015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3000015</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16">
-        <v>200003</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1129\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E3DCB-6815-49E5-B822-7E8FB18CBAF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,11 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1283,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1297,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1206\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E1D6C-7E77-4BC3-97F9-F86445535B96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +22,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,9 +568,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,6 +620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,11 +812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,7 +889,7 @@
         <v>100001</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -918,7 +953,7 @@
         <v>100004</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1014,7 +1049,7 @@
         <v>100007</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1238,7 +1273,7 @@
         <v>100013</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1276,13 +1311,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1296,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/other/配置表/k-卡牌配置表.xlsx
+++ b/other/配置表/k-卡牌配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1206\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\ourgame\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E1D6C-7E77-4BC3-97F9-F86445535B96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9011467-017E-4DE5-BBFE-E9E19EDBA495}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -323,9 +323,6 @@
     <t>card_skill_3000004</t>
   </si>
   <si>
-    <t>痛击</t>
-  </si>
-  <si>
     <t>card_3000005</t>
   </si>
   <si>
@@ -411,6 +408,10 @@
   </si>
   <si>
     <t>card_skill_3000015</t>
+  </si>
+  <si>
+    <t>碎骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -816,7 +817,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,7 +986,7 @@
         <v>100005</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -993,7 +994,7 @@
         <v>3000005</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1005,19 +1006,19 @@
         <v>3000005</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>100006</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1025,7 +1026,7 @@
         <v>3000006</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1037,13 +1038,13 @@
         <v>3000006</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>100007</v>
@@ -1057,7 +1058,7 @@
         <v>3000007</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1069,13 +1070,13 @@
         <v>3000007</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>300001</v>
@@ -1089,7 +1090,7 @@
         <v>3000008</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1101,13 +1102,13 @@
         <v>3000008</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>100009</v>
@@ -1121,7 +1122,7 @@
         <v>3000009</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1133,13 +1134,13 @@
         <v>3000010</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>100003</v>
@@ -1153,7 +1154,7 @@
         <v>3000010</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1165,13 +1166,13 @@
         <v>3000011</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>100010</v>
@@ -1185,7 +1186,7 @@
         <v>3000011</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1197,13 +1198,13 @@
         <v>3000012</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>100011</v>
@@ -1217,7 +1218,7 @@
         <v>3000012</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1229,13 +1230,13 @@
         <v>3000013</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13">
         <v>100012</v>
@@ -1249,7 +1250,7 @@
         <v>3000013</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1261,13 +1262,13 @@
         <v>3000014</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>100013</v>
@@ -1281,7 +1282,7 @@
         <v>3000014</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1293,13 +1294,13 @@
         <v>3000015</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15">
         <v>200003</v>
